--- a/medicine/Psychotrope/Thunder_Road_(film,_1958)/Thunder_Road_(film,_1958).xlsx
+++ b/medicine/Psychotrope/Thunder_Road_(film,_1958)/Thunder_Road_(film,_1958).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thunder Road (titre original) est un film dramatique américain réalisé en 1958 par Arthur Ripley.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucas Doolin, vétéran de la Guerre de Corée, revient dans ses montagnes et reprend une affaire familiale d’alcool de contrebande. Il doit se battre contre la bande de bandits de la ville (dirigée par le terrifiant Carl Kogan), qui essayent de s’imposer et, échapper aux policiers (Revenooers, agents de la police fiscale américaine ou IRS) qui veulent le mettre en prison.
 Le transport d'alcool de contrebande (moonshine - clair de lune - en argot américain) s'effectue à cette époque (les années 50) avec des voitures américaines gonflées, conduites à tombeau ouvert, en pleine nuit, sur des routes de campagne peu sûres et ce jeu très particulier de gendarmes et de voleurs motorisés a acquis un caractère quasi légendaire dans l'Amérique profonde en étant à l'origine des spectaculaires courses de stock - car.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Thunder Road
 Réalisateur : Arthur Ripley
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Robert Mitchum : Lucas Doolin
 Gene Barry : L’agent du Trésor, Troy Barrett
@@ -625,11 +643,13 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Thunder Road est le film le plus personnel de Robert Mitchum puisqu’il en est à la fois l’acteur principal, le producteur et l'auteur de l’histoire.
 Le rôle de Robin Doolin, le jeune frère de Lucas, était écrit à l’origine pour Elvis Presley mais son manager, le Colonel Tom Parker, intervint et exigea un cachet très élevé ce qui mit fin aux négociations. C’est finalement James, le fils de Robert Mitchum qui obtint le rôle.
-La chanson du film, une Ballade de style Country and Western est interprétée par un spécialiste de ce genre musical, le chanteur Randy Sparks, mais la version interprétée par Mitchum en personne eut un immense succès discographique à l'époque[1].
+La chanson du film, une Ballade de style Country and Western est interprétée par un spécialiste de ce genre musical, le chanteur Randy Sparks, mais la version interprétée par Mitchum en personne eut un immense succès discographique à l'époque.
 </t>
         </is>
       </c>
